--- a/data/icm_2026_wnba_data.xlsx
+++ b/data/icm_2026_wnba_data.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-92" yWindow="0" windowWidth="11243" windowHeight="13213" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="players" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="player raw stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teams" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="league" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="players_model" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="player raw stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="teams" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="league" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="players_model" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="candidates" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="assets" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="expansion" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -2376,8 +2379,6 @@
       <c r="C15" t="n">
         <v>4442</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>G</t>
@@ -2477,8 +2478,6 @@
       <c r="C18" t="n">
         <v>95835</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>F</t>
@@ -2562,6 +2561,769 @@
       </c>
       <c r="I20" t="n">
         <v>8.879750798513125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>player_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>acq_channel</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>team</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>salary</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>perf_score</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>injury_risk</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>popularity_score</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>asset_cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Kelsey Mitchell</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>269244</v>
+      </c>
+      <c r="E2" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.71178452040311</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.8207917799691512</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Natasha Howard</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>214466</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.19959732553486</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.7002115442520336</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sophie Cunningham</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.07787559166224</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4744635841500617</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Damiris Dantas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.62621780688772</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.2366273798659225</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sydney Colson</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>90000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.059999999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.3181818181818182</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12.80491189386785</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1831368993598327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lexie Hull</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>88261</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17.46</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>12.99453227861913</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5276518585515971</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brianna Turner</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.3863636363636364</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.34177474101152</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.1474765790224395</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Aliyah Boston</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>83371</v>
+      </c>
+      <c r="E9" t="n">
+        <v>33.09</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>12.86100121066915</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9999999999697795</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Caitlin Clark</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>78066</v>
+      </c>
+      <c r="E10" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7045454545454546</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.09644468120408</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9610154124822905</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Makayla Timpson</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>69267</v>
+      </c>
+      <c r="E11" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2954545454545455</v>
+      </c>
+      <c r="G11" t="n">
+        <v>9.947552283698229</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.1891810214509163</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Aari McDonald</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>52333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.63</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="G12" t="n">
+        <v>11.15911783492669</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.5932305832398542</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chloe Bibby</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>23322</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10.63347280231402</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.1946207313328915</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Odyssey Sims</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>7949</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10.58660964944898</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5336959806426808</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Bree Hall</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4442</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>11.661354090741</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Aerial Powers</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>3975</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.32</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.97666577049077</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5536415835432565</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Shey Peddy</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1987</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7.91</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="G17" t="n">
+        <v>9.661479683575521</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.2390450287023559</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Katie Lou Samuelson</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>95835</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>11.92504173829169</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>DeWanna Bonner</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>72269</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="G19" t="n">
+        <v>11.46793855923583</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.4762768207773868</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kyra Lambert</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>trade</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Fever</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3887</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9772727272727273</v>
+      </c>
+      <c r="G20" t="n">
+        <v>8.879750798513125</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>draft_picks_owned</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>trade_asset_budget</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>expansion_team_name</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>city</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>lat</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>lon</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>start_week</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Example Expansion Team</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Example City</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/icm_2026_wnba_data.xlsx
+++ b/data/icm_2026_wnba_data.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-92" yWindow="0" windowWidth="11243" windowHeight="13213" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="players" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="player raw stats" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="teams" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="league" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="players_model" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="candidates" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="assets" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="expansion" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="players" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="player raw stats" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="teams" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="league" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="players_model" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="candidates" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="assets" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="expansion" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
